--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43069,6 +43069,41 @@
         <v>124400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>237200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43104,6 +43104,41 @@
         <v>237200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>780500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43244,6 +43244,41 @@
         <v>215400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>181800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43279,6 +43279,41 @@
         <v>181800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>373300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43384,6 +43384,41 @@
         <v>162400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>393000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43419,6 +43419,41 @@
         <v>393000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>199000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43454,6 +43454,41 @@
         <v>199000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>131700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43489,6 +43489,76 @@
         <v>131700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>429800</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1047600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43559,6 +43559,76 @@
         <v>1047600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>701300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>227400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43629,6 +43629,41 @@
         <v>227400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>398000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43664,6 +43664,41 @@
         <v>398000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>369200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43699,6 +43699,41 @@
         <v>369200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>579400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43734,6 +43734,41 @@
         <v>579400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>706500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43769,6 +43769,76 @@
         <v>706500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>469200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>167500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43839,6 +43839,41 @@
         <v>167500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>464300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43874,6 +43874,41 @@
         <v>464300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>543900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2226"/>
+  <dimension ref="A1:I2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78384,6 +78384,41 @@
         <v>543900</v>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>680700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2227"/>
+  <dimension ref="A1:I2228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78419,6 +78419,41 @@
         <v>680700</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>630000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2230"/>
+  <dimension ref="A1:I2231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78524,6 +78524,41 @@
         <v>1414500</v>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>320500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2232"/>
+  <dimension ref="A1:I2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78594,6 +78594,41 @@
         <v>525900</v>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>863600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2233"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78629,6 +78629,41 @@
         <v>863600</v>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>1309800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78664,6 +78664,41 @@
         <v>1309800</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>173700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78699,6 +78699,41 @@
         <v>173700</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>962800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78734,6 +78734,41 @@
         <v>962800</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>1800700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2237"/>
+  <dimension ref="A1:I2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78769,6 +78769,41 @@
         <v>1800700</v>
       </c>
     </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>2984000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2238"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78804,6 +78804,41 @@
         <v>2984000</v>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>6772800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78839,6 +78839,41 @@
         <v>6772800</v>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>14400900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0001.xlsx
+++ b/data/0001.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78874,6 +78874,41 @@
         <v>14400900</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>SCOMNET</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>4424700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
